--- a/dados/srb store.xlsx
+++ b/dados/srb store.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:230239613#searchVariation=MLB27685629&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:230239613#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:230239613#searchVariation=MLB21392652&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:230239613#searchVariation=MLB21392652&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:230239613#searchVariation=MLB24834408&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:230239613#searchVariation=MLB24834408&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:230239613#searchVariation=MLB24006449&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:230239613#searchVariation=MLB24006449&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:230239613#searchVariation=MLB34210379&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:230239613#searchVariation=MLB34210379&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -596,17 +648,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:230239613#searchVariation=MLB22144397&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:230239613#searchVariation=MLB22144397&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -621,17 +683,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:230239613#searchVariation=MLB24154371&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:230239613#searchVariation=MLB24154371&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -646,17 +714,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:230239613#searchVariation=MLB28687615&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:230239613#searchVariation=MLB28687615&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -671,17 +745,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:230239613#searchVariation=MLB21562641&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:230239613#searchVariation=MLB21562641&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -696,17 +780,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:230239613#searchVariation=MLB28722231&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:230239613#searchVariation=MLB28722231&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -721,17 +811,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:230239613#searchVariation=MLB23456525&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:230239613#searchVariation=MLB23456525&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -746,17 +842,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:230239613#searchVariation=MLB21455208&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:230239613#searchVariation=MLB21455208&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -771,17 +877,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:230239613#searchVariation=MLB21320712&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=3e4e9798-ec4e-4877-8548-47ddaab07c9c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:230239613#searchVariation=MLB21320712&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
         </is>
       </c>
     </row>
@@ -796,17 +912,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:230239613#searchVariation=MLB23998473&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=ba557fb1-f33c-414f-9338-9afd736bf80f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:230239613#searchVariation=MLB23998473&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=b4b39898-c93e-405a-af39-5c3e1d3eb3af</t>
         </is>
       </c>
     </row>
@@ -821,17 +943,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:230239613#searchVariation=MLB22569833&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=0272e809-34b0-4d56-b037-009476d53682</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:230239613#searchVariation=MLB22569833&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=a17f50b6-be2d-4960-9c4c-53c711592ee9</t>
         </is>
       </c>
     </row>
@@ -846,17 +978,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:230239613#searchVariation=MLB27687422&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=4a187df5-8457-43c3-8a33-5c665fd2ca81</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:230239613#searchVariation=MLB27687422&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=a757e012-e79b-4160-bad3-ca3998c38d8c</t>
         </is>
       </c>
     </row>
@@ -871,17 +1009,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948501526-carregador-bateria-portatil-carromoto-12v-jfa-f60a-redline-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f36b80-bf28-4e77-b799-efd1c9ebac30</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1948501526-carregador-bateria-portatil-carromoto-12v-jfa-f60a-redline-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D560c7adf-707a-4a2e-9939-b436d34088b1</t>
         </is>
       </c>
     </row>
@@ -896,17 +1040,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223504059-controle-longa-distancia-jfa-k1200-1200-mts-cor-azul-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D434ac682-2fcd-4e60-88c5-8579eb043967</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1223504059-controle-longa-distancia-jfa-k1200-1200-mts-cor-azul-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De7a8c97a-6d5e-46db-80ed-2e4af88ba9b4</t>
         </is>
       </c>
     </row>
@@ -921,17 +1071,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223662205-controle-longa-distancia-jfa-k1200-1200-mts-cor-vermelho-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc63ae445-1a8c-448b-ba6e-e5b939a374a7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1223662205-controle-longa-distancia-jfa-k1200-1200-mts-cor-vermelho-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6efb3741-47a7-4fb4-8265-4554c5938651</t>
         </is>
       </c>
     </row>
@@ -946,17 +1102,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223499443-controle-longa-distancia-jfa-k1200-1200-mts-cor-preto-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4885568a-9ce4-4373-8922-ff05a414643a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1223499443-controle-longa-distancia-jfa-k1200-1200-mts-cor-preto-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6efb3741-47a7-4fb4-8265-4554c5938651</t>
         </is>
       </c>
     </row>

--- a/dados/srb store.xlsx
+++ b/dados/srb store.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>82.47</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:230239613#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:230239613#searchVariation=MLB27685629&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
@@ -507,14 +507,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -532,7 +532,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:230239613#searchVariation=MLB21392652&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:230239613#searchVariation=MLB21392652&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
@@ -542,14 +542,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:230239613#searchVariation=MLB24834408&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:230239613#searchVariation=MLB24834408&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
@@ -577,19 +577,15 @@
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>815.66</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -602,25 +598,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:230239613#searchVariation=MLB24006449&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:230239613#searchVariation=MLB24006449&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>97</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>539.74</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -633,27 +633,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:230239613#searchVariation=MLB34210379&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:230239613#searchVariation=MLB22144397&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>774.88</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -668,23 +668,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:230239613#searchVariation=MLB22144397&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:230239613#searchVariation=MLB24154371&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>97</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:230239613#searchVariation=MLB24154371&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:230239613#searchVariation=MLB34210379&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
@@ -709,13 +709,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>99</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:230239613#searchVariation=MLB28687615&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:230239613#searchVariation=MLB28687615&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
@@ -740,14 +740,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>443.07</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -765,7 +765,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:230239613#searchVariation=MLB21562641&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:230239613#searchVariation=MLB21562641&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
@@ -775,13 +775,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>88</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:230239613#searchVariation=MLB28722231&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:230239613#searchVariation=MLB28722231&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
@@ -806,15 +806,19 @@
           <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>455.57</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -827,7 +831,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:230239613#searchVariation=MLB23456525&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:230239613#searchVariation=MLB23456525&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
@@ -837,14 +841,14 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>523.63</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -862,7 +866,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:230239613#searchVariation=MLB21455208&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:230239613#searchVariation=MLB21455208&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
@@ -872,14 +876,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>498.19</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -897,7 +901,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:230239613#searchVariation=MLB21320712&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=eabc56ea-19f4-4216-a7bf-c1b6f3897ffc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:230239613#searchVariation=MLB21320712&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
         </is>
       </c>
     </row>
@@ -907,15 +911,19 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>654.95</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -928,7 +936,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:230239613#searchVariation=MLB23998473&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=b4b39898-c93e-405a-af39-5c3e1d3eb3af</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:230239613#searchVariation=MLB23998473&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=ba2f5323-777b-4ff4-a4af-13c2d486d66e</t>
         </is>
       </c>
     </row>
@@ -938,14 +946,14 @@
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>455.79</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -963,7 +971,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:230239613#searchVariation=MLB22569833&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=a17f50b6-be2d-4960-9c4c-53c711592ee9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:230239613#searchVariation=MLB22569833&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=fe304dae-6677-4b35-9977-b7934434af0e</t>
         </is>
       </c>
     </row>
@@ -973,13 +981,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>83.17</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -994,7 +1002,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:230239613#searchVariation=MLB27687422&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=a757e012-e79b-4160-bad3-ca3998c38d8c</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:230239613#searchVariation=MLB27687422&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=943e0e15-7623-4511-89ad-f004b480e609</t>
         </is>
       </c>
     </row>
@@ -1004,15 +1012,19 @@
           <t>Carregador Bateria Portatil Carro/moto 12v  Jfa F60a Redline</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>699.9</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1025,7 +1037,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948501526-carregador-bateria-portatil-carromoto-12v-jfa-f60a-redline-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D560c7adf-707a-4a2e-9939-b436d34088b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1948501526-carregador-bateria-portatil-carromoto-12v-jfa-f60a-redline-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfcb2dd27-7735-4508-b2e0-72c30e267ed1</t>
         </is>
       </c>
     </row>
@@ -1035,13 +1047,13 @@
           <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Azul</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>99</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1056,7 +1068,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223504059-controle-longa-distancia-jfa-k1200-1200-mts-cor-azul-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De7a8c97a-6d5e-46db-80ed-2e4af88ba9b4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1223504059-controle-longa-distancia-jfa-k1200-1200-mts-cor-azul-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2286d876-8171-409e-814d-621d2e041530</t>
         </is>
       </c>
     </row>
@@ -1066,13 +1078,13 @@
           <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Vermelho</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>97</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1087,7 +1099,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223662205-controle-longa-distancia-jfa-k1200-1200-mts-cor-vermelho-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6efb3741-47a7-4fb4-8265-4554c5938651</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1223662205-controle-longa-distancia-jfa-k1200-1200-mts-cor-vermelho-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7629531-2e50-448a-90a0-b28ab1222175</t>
         </is>
       </c>
     </row>
@@ -1097,13 +1109,13 @@
           <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Preto</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>99</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1118,7 +1130,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223499443-controle-longa-distancia-jfa-k1200-1200-mts-cor-preto-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6efb3741-47a7-4fb4-8265-4554c5938651</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1223499443-controle-longa-distancia-jfa-k1200-1200-mts-cor-preto-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbb628a4-7b5f-4350-beca-e876ef09207a</t>
         </is>
       </c>
     </row>

--- a/dados/srb store.xlsx
+++ b/dados/srb store.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,13 +478,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>82.47</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>NA</t>
@@ -497,23 +501,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:230239613#searchVariation=MLB27685629&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:230239613#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>674.6799999999999</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -532,27 +536,27 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:230239613#searchVariation=MLB21392652&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:230239613#searchVariation=MLB24834408&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>694.8200000000001</v>
+        <v>815.66</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,25 +571,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:230239613#searchVariation=MLB24834408&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:230239613#searchVariation=MLB24006449&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>815.66</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>539.74</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -598,27 +606,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:230239613#searchVariation=MLB24006449&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:230239613#searchVariation=MLB22144397&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>539.74</v>
+        <v>774.88</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,23 +641,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:230239613#searchVariation=MLB22144397&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:230239613#searchVariation=MLB24154371&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>774.88</v>
+        <v>99</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -668,25 +676,29 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:230239613#searchVariation=MLB24154371&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:230239613#searchVariation=MLB28687615&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>97</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -699,25 +711,29 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:230239613#searchVariation=MLB34210379&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:230239613#searchVariation=MLB21562641&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>99</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>97</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -730,27 +746,27 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:230239613#searchVariation=MLB28687615&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:230239613#searchVariation=MLB34210379&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>443.07</v>
+        <v>455.57</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -765,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:230239613#searchVariation=MLB21562641&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:230239613#searchVariation=MLB23456525&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
@@ -777,13 +793,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>88</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -796,27 +816,27 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:230239613#searchVariation=MLB28722231&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:230239613#searchVariation=MLB28722231&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>455.57</v>
+        <v>523.63</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -831,27 +851,27 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:230239613#searchVariation=MLB23456525&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:230239613#searchVariation=MLB21455208&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>523.63</v>
+        <v>498.19</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -866,23 +886,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:230239613#searchVariation=MLB21455208&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:230239613#searchVariation=MLB21320712&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>498.19</v>
+        <v>654.95</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -901,23 +921,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:230239613#searchVariation=MLB21320712&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=7be017a7-1b96-4703-960d-4c37c1f8f221</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:230239613#searchVariation=MLB23998473&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=93bbd6aa-ae11-4dea-b053-d8db9a16def9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>654.95</v>
+        <v>455.79</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -936,23 +956,23 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:230239613#searchVariation=MLB23998473&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=ba2f5323-777b-4ff4-a4af-13c2d486d66e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:230239613#searchVariation=MLB22569833&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=93bbd6aa-ae11-4dea-b053-d8db9a16def9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>Carregador Bateria Portatil Carro/moto 12v  Jfa F60a Redline</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>455.79</v>
+        <v>699.9</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -971,25 +991,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:230239613#searchVariation=MLB22569833&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=fe304dae-6677-4b35-9977-b7934434af0e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1948501526-carregador-bateria-portatil-carromoto-12v-jfa-f60a-redline-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5b3aaf1-f8a3-4045-b305-d746b7b51e27</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Carregador Bateria Portatil Carro/moto 12v  Jfa F60a Redline</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>83.17</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>699.9</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1002,23 +1026,23 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:230239613#searchVariation=MLB27687422&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=943e0e15-7623-4511-89ad-f004b480e609</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1948501526-carregador-bateria-portatil-carromoto-12v-jfa-f60a-redline-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61e465fc-4926-42a4-b74f-85e4317c5aad</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carregador Bateria Portatil Carro/moto 12v  Jfa F60a Redline</t>
+          <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Azul</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>699.9</v>
+        <v>99</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1037,25 +1061,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948501526-carregador-bateria-portatil-carromoto-12v-jfa-f60a-redline-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfcb2dd27-7735-4508-b2e0-72c30e267ed1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1223504059-controle-longa-distancia-jfa-k1200-1200-mts-cor-azul-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6c0cb87c-97e9-43d7-bcbb-19609ca76406</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Azul</t>
+          <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Vermelho</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>99</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>97</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1063,30 +1091,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223504059-controle-longa-distancia-jfa-k1200-1200-mts-cor-azul-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2286d876-8171-409e-814d-621d2e041530</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1223662205-controle-longa-distancia-jfa-k1200-1200-mts-cor-vermelho-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D993ae049-8d6a-458b-abd8-272a84058776</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Vermelho</t>
+          <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Preto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>97</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1099,38 +1131,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223662205-controle-longa-distancia-jfa-k1200-1200-mts-cor-vermelho-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc7629531-2e50-448a-90a0-b28ab1222175</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Preto</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>99</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223499443-controle-longa-distancia-jfa-k1200-1200-mts-cor-preto-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbb628a4-7b5f-4350-beca-e876ef09207a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1223499443-controle-longa-distancia-jfa-k1200-1200-mts-cor-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D993ae049-8d6a-458b-abd8-272a84058776</t>
         </is>
       </c>
     </row>

--- a/dados/srb store.xlsx
+++ b/dados/srb store.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,665 +483,900 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>82.47</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:230239613#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:230239613#searchVariation=MLB27685629&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>694.8200000000001</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:230239613#searchVariation=MLB24834408&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:230239613#searchVariation=MLB21392652&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>FONTE 200 MONO</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>815.66</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:230239613#searchVariation=MLB24006449&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:230239613#searchVariation=MLB24006449&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>539.74</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:230239613#searchVariation=MLB22144397&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:230239613#searchVariation=MLB24834408&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>774.88</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>539.74</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:230239613#searchVariation=MLB24154371&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:230239613#searchVariation=MLB22144397&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>99</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>88</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:230239613#searchVariation=MLB28687615&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:230239613#searchVariation=MLB28722231&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>443.07</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>774.88</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:230239613#searchVariation=MLB21562641&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:230239613#searchVariation=MLB24154371&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>97</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>99</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:230239613#searchVariation=MLB34210379&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:230239613#searchVariation=MLB28687615&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>455.57</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>97</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:230239613#searchVariation=MLB23456525&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:230239613#searchVariation=MLB34210379&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>88</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>443.07</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:230239613#searchVariation=MLB28722231&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:230239613#searchVariation=MLB21562641&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>523.63</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>455.57</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:230239613#searchVariation=MLB21455208&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:230239613#searchVariation=MLB23456525&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>498.19</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>523.63</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:230239613#searchVariation=MLB21320712&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=2bdee1eb-fa51-46ae-ac8b-7636b27338b8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:230239613#searchVariation=MLB21455208&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>654.95</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>498.19</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:230239613#searchVariation=MLB23998473&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=93bbd6aa-ae11-4dea-b053-d8db9a16def9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:230239613#searchVariation=MLB21320712&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=b603dc8d-41b1-4196-9040-c787f74679ab</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>455.79</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>654.95</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:230239613#searchVariation=MLB22569833&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=93bbd6aa-ae11-4dea-b053-d8db9a16def9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:230239613#searchVariation=MLB23998473&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=a2f22339-e897-4b9f-9ef1-d9c96d3a37d2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Carregador Bateria Portatil Carro/moto 12v  Jfa F60a Redline</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>699.9</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>455.79</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948501526-carregador-bateria-portatil-carromoto-12v-jfa-f60a-redline-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5b3aaf1-f8a3-4045-b305-d746b7b51e27</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:230239613#searchVariation=MLB22569833&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=a2f22339-e897-4b9f-9ef1-d9c96d3a37d2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carregador Bateria Portatil Carro/moto 12v  Jfa F60a Redline</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>699.9</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>83.17</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948501526-carregador-bateria-portatil-carromoto-12v-jfa-f60a-redline-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61e465fc-4926-42a4-b74f-85e4317c5aad</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:230239613#searchVariation=MLB27687422&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=1a1650ce-110c-471b-a7a5-908c19723a3a</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>99</v>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Carregador Bateria Portatil Carro/moto 12v  Jfa F60a Redline</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223504059-controle-longa-distancia-jfa-k1200-1200-mts-cor-azul-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6c0cb87c-97e9-43d7-bcbb-19609ca76406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1948501526-carregador-bateria-portatil-carromoto-12v-jfa-f60a-redline-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9f90e75c-166e-4e20-bda6-2c47a7443423</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Azul</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>97</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>99</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223662205-controle-longa-distancia-jfa-k1200-1200-mts-cor-vermelho-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D993ae049-8d6a-458b-abd8-272a84058776</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1223504059-controle-longa-distancia-jfa-k1200-1200-mts-cor-azul-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14fcf89e-601d-4e31-b141-cd9e05e4711f</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Preto</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="E20" t="n">
         <v>99</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1223499443-controle-longa-distancia-jfa-k1200-1200-mts-cor-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D993ae049-8d6a-458b-abd8-272a84058776</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1223499443-controle-longa-distancia-jfa-k1200-1200-mts-cor-preto-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8092408-4f82-4b42-9bbe-dd7889c3479d</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>srb store</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Controle Longa Distancia Jfa K1200 1200 Mts Cor Vermelho</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>97</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1223662205-controle-longa-distancia-jfa-k1200-1200-mts-cor-vermelho-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8092408-4f82-4b42-9bbe-dd7889c3479d</t>
         </is>
       </c>
     </row>
